--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney(ViaBene).xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney(ViaBene).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Case</t>
   </si>
@@ -36,9 +36,6 @@
     <t>PurposeOfPayment_Value</t>
   </si>
   <si>
-    <t>Account_Number_Value</t>
-  </si>
-  <si>
     <t>status_query</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t>DIGITAL_CHANNEL_SEC</t>
-  </si>
-  <si>
-    <t>06047900194203</t>
   </si>
   <si>
     <t>AliAbbas1</t>
@@ -448,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,116 +453,109 @@
     <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="59.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="11" width="44.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="21.5703125" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="10" width="44.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21.5703125" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
+      <c r="E1" t="s">
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
         <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
       </c>
       <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
+      <c r="J2" t="s">
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
         <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
       </c>
       <c r="P2" t="s">
         <v>13</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney(ViaBene).xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney(ViaBene).xlsx
@@ -99,9 +99,6 @@
     <t>Success_Message</t>
   </si>
   <si>
-    <t>Your transaction has been processed successfully.</t>
-  </si>
-  <si>
     <t>02197900643103</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>BeneName</t>
+  </si>
+  <si>
+    <t>Money sent successfully.</t>
   </si>
 </sst>
 </file>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +469,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -519,19 +519,19 @@
         <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>16</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney(ViaBene).xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney(ViaBene).xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="69">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>When valid Account Details are provided with adding new Bene</t>
-  </si>
-  <si>
     <t>From_Account_Value</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>DIGITAL_CHANNEL_SEC</t>
   </si>
   <si>
-    <t>AliAbbas1</t>
-  </si>
-  <si>
     <t>tran_type_query</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>Success_Message</t>
   </si>
   <si>
-    <t>02197900643103</t>
-  </si>
-  <si>
     <t>Courier Services</t>
   </si>
   <si>
@@ -109,13 +100,139 @@
   </si>
   <si>
     <t>Money sent successfully.</t>
+  </si>
+  <si>
+    <t>Basit</t>
+  </si>
+  <si>
+    <t>IBFTalreadybene</t>
+  </si>
+  <si>
+    <t>Afshaan Super Store</t>
+  </si>
+  <si>
+    <t>MicrofinanceIBFTPSDYIBAN</t>
+  </si>
+  <si>
+    <t>Automatealreadybene</t>
+  </si>
+  <si>
+    <t>pakistan22</t>
+  </si>
+  <si>
+    <t>BlockAccount</t>
+  </si>
+  <si>
+    <t>FCYACCOUNT</t>
+  </si>
+  <si>
+    <t>IBANalreadybene</t>
+  </si>
+  <si>
+    <t>ZEESHAN AHMED</t>
+  </si>
+  <si>
+    <t>ZEESHAN AHMED IBAN</t>
+  </si>
+  <si>
+    <t>MicrofinanceIBFTPSDNIBAN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD USMAN</t>
+  </si>
+  <si>
+    <t>08527900480003</t>
+  </si>
+  <si>
+    <t>To check fund transfer can not be performed with Insufficient Account Balance</t>
+  </si>
+  <si>
+    <t>To verify transaction with zero amount PSD_N_ViaBene</t>
+  </si>
+  <si>
+    <t>To verify transaction with decimal amount PSD_N_ViaBene</t>
+  </si>
+  <si>
+    <t>To Verify Send money with max limit allowed within HBL fund transfer PSD_N_ViaBene</t>
+  </si>
+  <si>
+    <t>To Check that user can not perform fund transfer with invalid transaction password PSD_N_ViaBene</t>
+  </si>
+  <si>
+    <t>To verify transaction with empty Amount field PSD_N_ViaBene</t>
+  </si>
+  <si>
+    <t>To verify transaction with empty transaction password field PSD_N_ViaBene</t>
+  </si>
+  <si>
+    <t>To Verify FT transaction on FCY account PSD_N_ViaBene</t>
+  </si>
+  <si>
+    <t>To verify transaction via IBAN PSD_N_ViaBene</t>
+  </si>
+  <si>
+    <t>To verify success transaction of conventional PSD_N_ViaBene</t>
+  </si>
+  <si>
+    <t>To Verify  IBFT transaction PSD_N_ViaBene</t>
+  </si>
+  <si>
+    <t>To Verify  IBFT transaction with max limit allowed limit PSD_N_ViaBene</t>
+  </si>
+  <si>
+    <t>To Verify  IBFT transaction Via IBAN PSD_N_ViaBene</t>
+  </si>
+  <si>
+    <t>To Verify Konnect transaction max limit exceed PSD_N_ViaBene</t>
+  </si>
+  <si>
+    <t>To Verify Microfinance IBFT transaction via IBAN max limit exceed PSD_N_ViaBene</t>
+  </si>
+  <si>
+    <t>To Verify success Microfinance IBFT via IBAN PSD_N_ViaBene</t>
+  </si>
+  <si>
+    <t>To Verify Send money with max limit allowed within HBL fund transfer PSD_Y_ViaBene</t>
+  </si>
+  <si>
+    <t>To Verify IBFT transaction max limit exceed PSD_Y_ViaBene</t>
+  </si>
+  <si>
+    <t>To Verify Konnect transaction max limit exceed PSD_Y_ViaBene</t>
+  </si>
+  <si>
+    <t>To Verify Microfinance IBFT transaction via IBAN max limit exceed PSD_Y_ViaBene</t>
+  </si>
+  <si>
+    <t>14660017195901</t>
+  </si>
+  <si>
+    <t>22837900558401</t>
+  </si>
+  <si>
+    <t>To verify that if user did not select the purpose of payment &amp; hit the next button PSD_N_ViaBene</t>
+  </si>
+  <si>
+    <t>To verify that if Bene account is blocked PSD_N_ViaBene</t>
+  </si>
+  <si>
+    <t>Konnect Account</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +251,11 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="MyFontLight"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,8 +282,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,15 +564,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="M9" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="59.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="21.7109375" customWidth="1"/>
@@ -459,103 +581,1219 @@
     <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="21.5703125" customWidth="1"/>
     <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="2">
+        <v>150001</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="D3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2">
+        <v>150001</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" t="s">
-        <v>13</v>
+      <c r="D4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15001</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15001</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="2">
+        <v>155.55000000000001</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="33" customHeight="1">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="2">
+        <v>25001</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="33" customHeight="1">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="33" customHeight="1">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="33" customHeight="1">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="33" customHeight="1">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="33" customHeight="1">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="33" customHeight="1">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2">
+        <v>150</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="33" customHeight="1">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="2">
+        <v>150</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="33" customHeight="1">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1050</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="33" customHeight="1">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1050</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="26.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="2">
+        <v>25001</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="22.5" customHeight="1">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1050</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5001</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5001</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1050</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="33" customHeight="1">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
